--- a/reports/correlation/Pearson_correlation_signals.xlsx
+++ b/reports/correlation/Pearson_correlation_signals.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Коэффициент корреляции" sheetId="1" r:id="rId1"/>
     <sheet name="Уровень доверия" sheetId="2" r:id="rId2"/>
+    <sheet name="Корреляция больше 75%" sheetId="3" r:id="rId3"/>
+    <sheet name="Корреляция больше 80%" sheetId="4" r:id="rId4"/>
+    <sheet name="Корреляция более 85%" sheetId="5" r:id="rId5"/>
+    <sheet name="Корреляция более 90%" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="852">
   <si>
     <t>DER_mass_MMC</t>
   </si>
@@ -2493,6 +2497,84 @@
   </si>
   <si>
     <t>0.667649550236</t>
+  </si>
+  <si>
+    <t>3 DER_pt_h 7 DER_deltar_tau_lep (-0.81593855374367696, 0.0)</t>
+  </si>
+  <si>
+    <t>3 DER_pt_h 9 DER_sum_pt (0.87295178574930721, 0.0)</t>
+  </si>
+  <si>
+    <t>3 DER_pt_h 19 PRI_met (0.77442678263572007, 0.0)</t>
+  </si>
+  <si>
+    <t>3 DER_pt_h 21 PRI_met_sumet (0.81857379808138009, 0.0)</t>
+  </si>
+  <si>
+    <t>3 DER_pt_h 29 PRI_jet_all_pt (0.85653450627619687, 0.0)</t>
+  </si>
+  <si>
+    <t>4 DER_deltaeta_jet_jet 5 DER_mass_jet_jet (0.81568761750893504, 0.0)</t>
+  </si>
+  <si>
+    <t>4 DER_deltaeta_jet_jet 6 DER_prodeta_jet_jet (-0.88935695698540052, 0.0)</t>
+  </si>
+  <si>
+    <t>5 DER_mass_jet_jet 4 DER_deltaeta_jet_jet (0.81568761750893504, 0.0)</t>
+  </si>
+  <si>
+    <t>5 DER_mass_jet_jet 6 DER_prodeta_jet_jet (-0.80223634713995817, 0.0)</t>
+  </si>
+  <si>
+    <t>6 DER_prodeta_jet_jet 4 DER_deltaeta_jet_jet (-0.88935695698540052, 0.0)</t>
+  </si>
+  <si>
+    <t>6 DER_prodeta_jet_jet 5 DER_mass_jet_jet (-0.80223634713995817, 0.0)</t>
+  </si>
+  <si>
+    <t>7 DER_deltar_tau_lep 3 DER_pt_h (-0.81593855374367696, 0.0)</t>
+  </si>
+  <si>
+    <t>7 DER_deltar_tau_lep 9 DER_sum_pt (-0.75263972968259707, 0.0)</t>
+  </si>
+  <si>
+    <t>9 DER_sum_pt 3 DER_pt_h (0.87295178574930721, 0.0)</t>
+  </si>
+  <si>
+    <t>9 DER_sum_pt 7 DER_deltar_tau_lep (-0.75263972968259707, 0.0)</t>
+  </si>
+  <si>
+    <t>9 DER_sum_pt 21 PRI_met_sumet (0.90573907327605252, 0.0)</t>
+  </si>
+  <si>
+    <t>9 DER_sum_pt 29 PRI_jet_all_pt (0.96919066486556815, 0.0)</t>
+  </si>
+  <si>
+    <t>19 PRI_met 3 DER_pt_h (0.77442678263572007, 0.0)</t>
+  </si>
+  <si>
+    <t>21 PRI_met_sumet 3 DER_pt_h (0.81857379808138009, 0.0)</t>
+  </si>
+  <si>
+    <t>21 PRI_met_sumet 9 DER_sum_pt (0.90573907327605252, 0.0)</t>
+  </si>
+  <si>
+    <t>21 PRI_met_sumet 29 PRI_jet_all_pt (0.88374644284363291, 0.0)</t>
+  </si>
+  <si>
+    <t>22 PRI_jet_num 29 PRI_jet_all_pt (0.77645116762932176, 0.0)</t>
+  </si>
+  <si>
+    <t>29 PRI_jet_all_pt 3 DER_pt_h (0.85653450627619687, 0.0)</t>
+  </si>
+  <si>
+    <t>29 PRI_jet_all_pt 9 DER_sum_pt (0.96919066486556815, 0.0)</t>
+  </si>
+  <si>
+    <t>29 PRI_jet_all_pt 21 PRI_met_sumet (0.88374644284363291, 0.0)</t>
+  </si>
+  <si>
+    <t>29 PRI_jet_all_pt 22 PRI_jet_num (0.77645116762932176, 0.0)</t>
   </si>
 </sst>
 </file>
@@ -3357,7 +3439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -9316,4 +9398,464 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>826</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>19</v>
+      </c>
+      <c r="O1">
+        <v>21</v>
+      </c>
+      <c r="P1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>827</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>828</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>851</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>826</v>
+      </c>
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>21</v>
+      </c>
+      <c r="N1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>827</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>850</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>827</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>830</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>832</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>841</v>
+      </c>
+      <c r="H1">
+        <v>9</v>
+      </c>
+      <c r="I1">
+        <v>21</v>
+      </c>
+      <c r="J1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>